--- a/grade.xlsx
+++ b/grade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linny\Documents\GitHub\CSC4520\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LINNY-T14S\Documents\Github\CSC4520\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80AFD60F-3D60-42B3-8508-55670DCFDF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2EF0E6-EC2B-4622-B02E-2FFA03278A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{7CDEAF3C-E71D-42BB-A92E-DB4089A45CC9}"/>
+    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="11400" xr2:uid="{7CDEAF3C-E71D-42BB-A92E-DB4089A45CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,12 +70,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -94,7 +100,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,16 +439,15 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="4" width="9" style="1"/>
+    <col min="2" max="4" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -454,20 +459,20 @@
       </c>
       <c r="D1" s="1">
         <f>AVERAGE(B1:B3)*C1</f>
-        <v>0.13950000000000001</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="B2" s="2">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="B3" s="2">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>4.6000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -479,20 +484,20 @@
       </c>
       <c r="D4" s="1">
         <f>AVERAGE(B4:B6)*C4</f>
-        <v>0.23749999999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.13749999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" s="2">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -504,37 +509,37 @@
       </c>
       <c r="D7" s="1">
         <f>AVERAGE(B7:B8)*C7</f>
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.24749999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B8" s="2">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="2">
-        <v>0.95</v>
+      <c r="B9" s="1">
+        <v>0</v>
       </c>
       <c r="C9" s="1">
         <v>0.3</v>
       </c>
       <c r="D9" s="1">
         <f>B9*C9</f>
-        <v>0.28499999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C11" s="1">
         <f>SUM(C1:C9)</f>
         <v>1</v>
       </c>
       <c r="D11" s="1">
         <f>SUM(D1:D9)</f>
-        <v>0.90199999999999991</v>
+        <v>0.43099999999999994</v>
       </c>
     </row>
   </sheetData>

--- a/grade.xlsx
+++ b/grade.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LINNY-T14S\Documents\Github\CSC4520\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linny\Documents\GitHub\CSC4520\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2EF0E6-EC2B-4622-B02E-2FFA03278A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89A4DBD-7376-468B-9641-A2FA794F70CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="11400" xr2:uid="{7CDEAF3C-E71D-42BB-A92E-DB4089A45CC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{7CDEAF3C-E71D-42BB-A92E-DB4089A45CC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,15 +439,15 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="4" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,20 +459,20 @@
       </c>
       <c r="D1" s="1">
         <f>AVERAGE(B1:B3)*C1</f>
-        <v>4.6000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.13599999999999998</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="B3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -484,20 +484,20 @@
       </c>
       <c r="D4" s="1">
         <f>AVERAGE(B4:B6)*C4</f>
-        <v>0.13749999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.1958333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="B5" s="2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4">
+      <c r="B6" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -512,34 +512,34 @@
         <v>0.24749999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="B8" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C9" s="1">
         <v>0.3</v>
       </c>
       <c r="D9" s="1">
         <f>B9*C9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="C11" s="1">
         <f>SUM(C1:C9)</f>
         <v>1</v>
       </c>
       <c r="D11" s="1">
         <f>SUM(D1:D9)</f>
-        <v>0.43099999999999994</v>
+        <v>0.81933333333333325</v>
       </c>
     </row>
   </sheetData>

--- a/grade.xlsx
+++ b/grade.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linny\Documents\GitHub\CSC4520\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89A4DBD-7376-468B-9641-A2FA794F70CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829442A7-3C00-48F5-9AEF-0E8E760EC8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{7CDEAF3C-E71D-42BB-A92E-DB4089A45CC9}"/>
   </bookViews>
@@ -439,7 +439,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -459,7 +459,7 @@
       </c>
       <c r="D1" s="1">
         <f>AVERAGE(B1:B3)*C1</f>
-        <v>0.13599999999999998</v>
+        <v>0.14599999999999999</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -469,7 +469,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -522,14 +522,14 @@
         <v>3</v>
       </c>
       <c r="B9" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1">
         <v>0.3</v>
       </c>
       <c r="D9" s="1">
         <f>B9*C9</f>
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -539,7 +539,7 @@
       </c>
       <c r="D11" s="1">
         <f>SUM(D1:D9)</f>
-        <v>0.81933333333333325</v>
+        <v>0.88933333333333331</v>
       </c>
     </row>
   </sheetData>
